--- a/data/HR1_2/A_KPC_35_1/A_KPC_35_1_2030.xlsx
+++ b/data/HR1_2/A_KPC_35_1/A_KPC_35_1_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FDDAB8-9922-4079-B84F-0585ED23D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77A3E99-37AF-42A1-B18D-AB56F1D9F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -11640,7 +11640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11750,7 +11750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498A9F42-8499-49E9-B775-98D9F5D79AA3}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -17591,7 +17591,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19098,7 +19098,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20605,7 +20605,7 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21924,7 +21924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A010E07-49F0-477C-9E26-FA03FDF9E9A4}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/data/HR1_2/A_KPC_35_1/A_KPC_35_1_2030.xlsx
+++ b/data/HR1_2/A_KPC_35_1/A_KPC_35_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90992FB-08F2-41AA-95EF-935F9D6D9E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC745C68-B510-4732-A491-43448D6F714F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="33" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44958,8 +44958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEEFF66-812B-4A62-A958-597678292A9C}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46004,7 +46004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9300630C-D27C-4B85-B1F3-7BCF59DC8C61}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
